--- a/biology/Médecine/1248_en_santé_et_médecine/1248_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1248_en_santé_et_médecine/1248_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1248_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1248_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1248 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1248_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1248_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>24-25 novembre : dans la nuit, quelque cinq cents millions de mètres cubes de roche s'éboulent de la montagne du Granier, en Savoie, tuant plus de mille personnes[1].
-« Les Juifs, dont la loi prescrit aux femmes l'usage du bain au moins une fois par mois, [ont à Paris,] dans la rue de la Pelleterie, une maison d'étuves à leur usage exclusif[2] ».
-Fondation à Arras en Artois, par Adam Esturjon, d'un hospice de douze lits pour recevoir les pèlerins de Saint-Jacques[3].
-Une maladerie est attestée à Betz, en Champagne, « sur la gauche du chemin de Trocy à Échancu[4] ».
-1246[5] ou 1248[6] : fondation de l'hôpital Notre-Dame de Seclin, par Marguerite, comtesse de Flandre, sœur de Jeanne de Constantinople.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24-25 novembre : dans la nuit, quelque cinq cents millions de mètres cubes de roche s'éboulent de la montagne du Granier, en Savoie, tuant plus de mille personnes.
+« Les Juifs, dont la loi prescrit aux femmes l'usage du bain au moins une fois par mois, [ont à Paris,] dans la rue de la Pelleterie, une maison d'étuves à leur usage exclusif ».
+Fondation à Arras en Artois, par Adam Esturjon, d'un hospice de douze lits pour recevoir les pèlerins de Saint-Jacques.
+Une maladerie est attestée à Betz, en Champagne, « sur la gauche du chemin de Trocy à Échancu ».
+1246 ou 1248 : fondation de l'hôpital Notre-Dame de Seclin, par Marguerite, comtesse de Flandre, sœur de Jeanne de Constantinople.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1248_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1248_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Kitab al-Gami (« Livre des simples[7] ») d'Ibn al-Baitar, qui rassemble les connaissances pharmacologiques du moment[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Kitab al-Gami (« Livre des simples ») d'Ibn al-Baitar, qui rassemble les connaissances pharmacologiques du moment.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1248_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1248_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mouhammad ibn Dâniyâl (mort en 1310), médecin oculiste, poète et auteur dramatique né à Mossoul et ayant vécu en Égypte sous les Mamelouks[9].
-1247 ou 1248[10] : Rashid al-Din (mort en 1318), médecin, historien et homme d'État persan d'origine juive, « qui passe pour avoir été le premier à transmettre la médecine chinoise au monde occidental[11] ».
-Vers 1248[12] : Jean Pitard (mort au plus tôt en 1327, probablement après septembre 1328[12]), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mouhammad ibn Dâniyâl (mort en 1310), médecin oculiste, poète et auteur dramatique né à Mossoul et ayant vécu en Égypte sous les Mamelouks.
+1247 ou 1248 : Rashid al-Din (mort en 1318), médecin, historien et homme d'État persan d'origine juive, « qui passe pour avoir été le premier à transmettre la médecine chinoise au monde occidental ».
+Vers 1248 : Jean Pitard (mort au plus tôt en 1327, probablement après septembre 1328), chirurgien des rois de France Philippe le Hardi et Philippe le Bel.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1248_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1248_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibn al-Baitar (né entre 1190 et 1197), médecin et botaniste arabe, auteur du Kitab al-Gami.
 </t>
